--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pnoc-Oprl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pnoc-Oprl1.xlsx
@@ -76,10 +76,10 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Pnoc</t>
@@ -522,25 +522,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2076486666666667</v>
+        <v>0.1534156666666667</v>
       </c>
       <c r="H2">
-        <v>0.622946</v>
+        <v>0.460247</v>
       </c>
       <c r="I2">
-        <v>0.9235109504092412</v>
+        <v>0.4248984253037086</v>
       </c>
       <c r="J2">
-        <v>0.9235109504092411</v>
+        <v>0.4248984253037086</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1506943058597778</v>
+        <v>0.1113364596434444</v>
       </c>
       <c r="R2">
-        <v>1.356248752738</v>
+        <v>1.002028136791</v>
       </c>
       <c r="S2">
-        <v>0.9235109504092412</v>
+        <v>0.4248984253037086</v>
       </c>
       <c r="T2">
-        <v>0.9235109504092411</v>
+        <v>0.4248984253037086</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +584,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -593,16 +593,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01719833333333333</v>
+        <v>0.2076486666666667</v>
       </c>
       <c r="H3">
-        <v>0.051595</v>
+        <v>0.622946</v>
       </c>
       <c r="I3">
-        <v>0.07648904959075875</v>
+        <v>0.5751015746962914</v>
       </c>
       <c r="J3">
-        <v>0.07648904959075875</v>
+        <v>0.5751015746962914</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.01248113433722222</v>
+        <v>0.1506943058597778</v>
       </c>
       <c r="R3">
-        <v>0.112330209035</v>
+        <v>1.356248752738</v>
       </c>
       <c r="S3">
-        <v>0.07648904959075875</v>
+        <v>0.5751015746962914</v>
       </c>
       <c r="T3">
-        <v>0.07648904959075875</v>
+        <v>0.5751015746962914</v>
       </c>
     </row>
   </sheetData>
